--- a/더미데이터test/testBom.xlsx
+++ b/더미데이터test/testBom.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIT-303\Desktop\gitDirectory\KDTProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIT-303\Desktop\gitDirectory\KDTProject\더미데이터test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11340"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="11310"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="bom" sheetId="1" r:id="rId4"/>
@@ -19,11 +19,545 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="211">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="214">
+  <x:si>
+    <x:t>전기뱀장어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자전거 프레임셋 TSUN 알루미늄 고정 기어 및 포크 트랙 픽시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노XT PD-M8100 페달 (XC용, SPD 클릿 포함)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>슈발베 29인치[27.5겸용] 프리라이드 광폭 튜브 (40mm) 폭 2.1~3.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모터 휠 전면 후면 브러시리스 기어드 허브 Ebike 변환 키트용 48V 500w</x:t>
+  </x:si>
+  <x:si>
+    <x:t>페달 보조 센서 용 12 마그네틱 듀얼 홀 통합 전원 Ebike</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB3FIN015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COS 스테인레스 블랙 데프콘코팅 브레이크속선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노BR-MT410 유압식 브레이크 캘리퍼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8인치 허브모터 36v 450w 8×2.00-5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KUDOS-Q1 세미-인터그레이티드 레드 헤드셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노FC-M6000 데오레 10단 체인휠세트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATHAMAT008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB2MAT002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB2MAT004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATRIMAT004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATRIMAT002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATHAMAT006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATPEMAT002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB3FIN002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8인치 에어바퀴 휠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATHAMAT010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에르고노믹 핸들 그립</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB3MAT003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATSAMAT001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATHAMAT009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATSAMAT003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브레이크 케이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATK2FIN001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATPEMAT003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATHAMAT007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATRIMAT006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATPEMAT001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATHAMAT005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB3MAT004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATSAMAT002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB2MAT003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATHAMAT003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATHAMAT004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>페달 보조 센서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB2MAT005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB3MAT001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB3FIN001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB2MAT001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브레이크 레버 - 우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140mm 로터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATK1MAT001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATHAMAT001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATBOMAT002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계기판+스로틀 레버</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATRIMAT001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATSAMAT004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATRIMAT005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATBOMAT001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB2MAT006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATK1MAT004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATK1MAT005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6선 케이블 1.8m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATK2MAT001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스탠다드 핸들 그립</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATK1MAT003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATRIMAT003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATHAMAT002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATK1MAT002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB3MAT002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATWHMAT004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브레이크 레버 - 좌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e근두운 36v 리튬이온 배터리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노SM-BB52 바텀브라켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BTR 무통증 스프링 쿠션 자전거</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8인치 킥보드 쇼바 튜닝용 발판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서스펜션 시트포스트 pm-705</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노FC-M371 체인휠세트 9단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LOOBON 고탄성 스프링 쿠션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크랭크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>핸들바</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스포크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프레임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캘리퍼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>튜브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전조등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배터리</x:t>
+  </x:si>
   <x:si>
     <x:t>헤드셋</x:t>
   </x:si>
   <x:si>
+    <x:t>스탠드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>페달</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밸브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노DB-MT201 유압식 디스크 브레이크 (좌우 세트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스기노 RD2 PJ130 메신져 트랙 픽시 크랭크세트 46T</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노BL-MT201 브레이크 레버 (우)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노BL-MT200 브레이크 레버 (우)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KHS-PT1860 인터그레이티드 헤드셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36v 1600w BLDC 모터 컨트롤러</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벨로또 세띠아 디펜더(29 x 1.75)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48V 리튬이온 배터리 - 볼턴 배터리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로터바이크 인파워 DM 파워미터 크랭크세트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노BL-MT201 브레이크 레버 (좌)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노BL-MT200 브레이크 레버 (좌)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 케이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허브 모터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변속기(뒤)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컨트롤러</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체인 휠세트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시트 클램프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수동식 경적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>안장 날개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바텀브라켓 셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스프라켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>핸들 그립</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전자식 경적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시트 포스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할로겐 전조등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경적+전조등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기둥 프레임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>※부품 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기자전거B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>롬 킥 스탠드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>센터 스탠드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>※자재 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기자전거A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>※사용 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>※상품 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LED 전조등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>킥스탠드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변속기(앞)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전동킥보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sp242 시트포스트[레일식]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노E25 옥타링크 바텀브라켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계기판 스로틀 디스플레이 타입B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노슬릭 스테인레스 브레이크속선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계기판 스로틀 디스플레이 타입A</x:t>
+  </x:si>
+  <x:si>
     <x:t>36V 15AH 배터리(기본형)</x:t>
   </x:si>
   <x:si>
@@ -33,439 +567,85 @@
     <x:t>시마노10단 디오레티아그라 스프라켓</x:t>
   </x:si>
   <x:si>
-    <x:t>계기판 스로틀 디스플레이 타입B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노E25 옥타링크 바텀브라켓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계기판 스로틀 디스플레이 타입A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노슬릭 스테인레스 브레이크속선</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sp242 시트포스트[레일식]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노FC-M371 체인휠세트 9단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>e근두운 36v 리튬이온 배터리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노SM-BB52 바텀브라켓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8인치 킥보드 쇼바 튜닝용 발판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BTR 무통증 스프링 쿠션 자전거</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서스펜션 시트포스트 pm-705</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LOOBON 고탄성 스프링 쿠션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>페달 보조 센서 용 12 마그네틱 듀얼 홀 통합 전원 Ebike</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노XT PD-M8100 페달 (XC용, SPD 클릿 포함)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자전거 프레임셋 TSUN 알루미늄 고정 기어 및 포크 트랙 픽시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스기노 RD2 PJ130 메신져 트랙 픽시 크랭크세트 46T</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노DB-MT201 유압식 디스크 브레이크 (좌우 세트)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KUDOS-Q1 세미-인터그레이티드 레드 헤드셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노FC-M6000 데오레 10단 체인휠세트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COS 스테인레스 블랙 데프콘코팅 브레이크속선</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노BR-MT410 유압식 브레이크 캘리퍼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8인치 허브모터 36v 450w 8×2.00-5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>슈발베 29인치[27.5겸용] 프리라이드 광폭 튜브 (40mm) 폭 2.1~3.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모터 휠 전면 후면 브러시리스 기어드 허브 Ebike 변환 키트용 48V 500w</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벨로또 세띠아 디펜더(29 x 1.75)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KHS-PT1860 인터그레이티드 헤드셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36v 1600w BLDC 모터 컨트롤러</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노BL-MT201 브레이크 레버 (좌)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로터바이크 인파워 DM 파워미터 크랭크세트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노BL-MT200 브레이크 레버 (좌)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노BL-MT201 브레이크 레버 (우)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노BL-MT200 브레이크 레버 (우)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48V 리튬이온 배터리 - 볼턴 배터리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스탠드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캘리퍼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>튜브</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배터리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밸브</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전조등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허브</x:t>
-  </x:si>
-  <x:si>
-    <x:t>페달</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프레임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크랭크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스포크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>핸들바</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>휠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATPEMAT003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATHAMAT007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATWHMAT007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATRIMAT006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATHAMAT005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB3MAT004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATHAMAT003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATWHMAT005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATPEMAT001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATSAMAT002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB2MAT003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATHAMAT004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>페달 보조 센서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATWHMAT011</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATWHMAT008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계기판+스로틀 레버</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT013</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB2MAT005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB3MAT001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB3FIN001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB2MAT001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATRIMAT001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브레이크 레버 - 우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT015</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATHAMAT001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140mm 로터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATWHMAT003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATK1MAT001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATBOMAT002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATK1MAT003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATWHMAT013</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATK1MAT005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATBOMAT001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스탠다드 핸들 그립</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATSAMAT004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB2MAT006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6선 케이블 1.8m</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATK2MAT001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATK1MAT004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATRIMAT005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATWHMAT012</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT012</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATWHMAT009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATK1MAT002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATRIMAT003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATWHMAT004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATHAMAT002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브레이크 레버 - 좌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB3MAT002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATWHMAT015</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB2MAT004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATRIMAT002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATWHMAT001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT021</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATWHMAT016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB2MAT002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8인치 에어바퀴 휠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATWHMAT010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATHAMAT006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATPEMAT002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATHAMAT008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB3FIN002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATWHMAT014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATWHMAT002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATHAMAT010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATRIMAT004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATHAMAT009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에르고노믹 핸들 그립</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATK2FIN001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATWHMAT006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB3MAT003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATSAMAT003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATSAMAT001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브레이크 케이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1MAT011</x:t>
+    <x:t>시마노SM-RT56 로터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프레스타 밸브 60mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제로2 RHM V2 드롭바</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프레스타 밸브 48mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노FD-M4000 9단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알루미늄 싱글림 29인치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36V 500W 컨트롤러</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스람 x4 (7,8,9단)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노HB-M6010 허브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노RD-M4120 10단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스테인리스 스포크 1.8mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JAK9 브레이크 캘리퍼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스테인리스 스포크 2.0mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한국자전거 포크 서스펜션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노PD-M520L 페달</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6구 12W 라이트 + 경적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알루미늄 더블림 29인치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8인치 전면 기둥 프레임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스람 x5 10단 뒷변속기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>훔페르트 컨테스트 핸들바</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노HB-M6000 허브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노9단 카세트 스프라켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노프로 QR 시트클램프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노SM-RT66 로터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>접이식 핸들 일자형 660</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48V 800W 컨트롤러</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레인보우 QR 시트클램프</x:t>
   </x:si>
   <x:si>
     <x:t>벨로또 29인치 1.5~1.75 프레스타 튜브 40mm</x:t>
@@ -481,177 +661,6 @@
   </x:si>
   <x:si>
     <x:t>AU테크 레드윙 전동킥보드 전용 계기판/속도계 일반형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인 케이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허브 모터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변속기(뒤)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컨트롤러</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체인 휠세트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시트 포스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변속기(앞)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>핸들 그립</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전동킥보드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LED 전조등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경적+전조등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>안장 날개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기자전거B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수동식 경적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전자식 경적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시트 클램프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바텀브라켓 셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기자전거A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>할로겐 전조등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기둥 프레임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>※부품 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>※사용 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>※상품 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>킥스탠드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>롬 킥 스탠드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스프라켓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>센터 스탠드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>※자재 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48V 800W 컨트롤러</x:t>
-  </x:si>
-  <x:si>
-    <x:t>훔페르트 컨테스트 핸들바</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한국자전거 포크 서스펜션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알루미늄 싱글림 29인치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노PD-M520L 페달</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36V 500W 컨트롤러</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8인치 전면 기둥 프레임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노SM-RT56 로터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제로2 RHM V2 드롭바</x:t>
-  </x:si>
-  <x:si>
-    <x:t>접이식 핸들 일자형 660</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프레스타 밸브 60mm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6구 12W 라이트 + 경적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노RD-M4120 10단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노프로 QR 시트클램프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알루미늄 더블림 29인치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노SM-RT66 로터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스람 x4 (7,8,9단)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노HB-M6010 허브</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레인보우 QR 시트클램프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스람 x5 10단 뒷변속기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스테인리스 스포크 1.8mm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노HB-M6000 허브</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노FD-M4000 9단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JAK9 브레이크 캘리퍼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스테인리스 스포크 2.0mm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노9단 카세트 스프라켓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프레스타 밸브 48mm</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -719,8 +728,11 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellXfs>
@@ -733,7 +745,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -816,7 +827,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -851,7 +861,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -896,7 +905,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -940,7 +948,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1025,7 +1032,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1046,7 +1052,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1077,7 +1082,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1443,10 +1447,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:F83"/>
+  <x:dimension ref="A1:F84"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="N60" activeCellId="0" sqref="N60:N60"/>
+    <x:sheetView tabSelected="1" topLeftCell="C55" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="F85" activeCellId="0" sqref="F85:F85"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -1454,45 +1458,45 @@
     <x:col min="1" max="1" width="17.625" customWidth="1"/>
     <x:col min="2" max="2" width="16.375" customWidth="1"/>
     <x:col min="3" max="3" width="15.125" customWidth="1"/>
-    <x:col min="4" max="4" width="24.375" customWidth="1"/>
+    <x:col min="4" max="4" width="61.19140625" bestFit="1" customWidth="1"/>
     <x:col min="5" max="5" width="18.375" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">
       <x:c r="A1" t="s">
-        <x:v>178</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>162</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C1" t="s">
-        <x:v>183</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D1" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E1" t="s">
-        <x:v>176</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="F1" t="s">
-        <x:v>177</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B2" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C2" t="s">
-        <x:v>80</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D2" t="s">
-        <x:v>169</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E2" t="s">
-        <x:v>39</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F2">
         <x:v>1</x:v>
@@ -1500,19 +1504,19 @@
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C3" t="s">
-        <x:v>82</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D3" t="s">
-        <x:v>6</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E3" t="s">
-        <x:v>77</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F3">
         <x:v>1</x:v>
@@ -1520,19 +1524,19 @@
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B4" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C4" t="s">
-        <x:v>125</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D4" t="s">
-        <x:v>199</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E4" t="s">
-        <x:v>44</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F4">
         <x:v>2</x:v>
@@ -1540,19 +1544,19 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C5" t="s">
-        <x:v>83</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D5" t="s">
         <x:v>198</x:v>
       </x:c>
       <x:c r="E5" t="s">
-        <x:v>55</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F5">
         <x:v>2</x:v>
@@ -1560,19 +1564,19 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B6" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C6" t="s">
-        <x:v>76</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D6" t="s">
-        <x:v>11</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E6" t="s">
-        <x:v>172</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F6">
         <x:v>1</x:v>
@@ -1580,19 +1584,19 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C7" t="s">
-        <x:v>70</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D7" t="s">
-        <x:v>36</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E7" t="s">
-        <x:v>41</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F7">
         <x:v>1</x:v>
@@ -1600,19 +1604,19 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B8" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C8" t="s">
-        <x:v>116</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D8" t="s">
-        <x:v>194</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E8" t="s">
-        <x:v>42</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F8">
         <x:v>2</x:v>
@@ -1620,19 +1624,19 @@
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C9" t="s">
-        <x:v>114</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D9" t="s">
-        <x:v>203</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E9" t="s">
-        <x:v>156</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F9">
         <x:v>1</x:v>
@@ -1640,19 +1644,19 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B10" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C10" t="s">
-        <x:v>122</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D10" t="s">
-        <x:v>196</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E10" t="s">
-        <x:v>160</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F10">
         <x:v>1</x:v>
@@ -1660,19 +1664,19 @@
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B11" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C11" t="s">
-        <x:v>117</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D11" t="s">
-        <x:v>34</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E11" t="s">
-        <x:v>84</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F11">
         <x:v>1</x:v>
@@ -1680,19 +1684,19 @@
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B12" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C12" t="s">
-        <x:v>71</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D12" t="s">
-        <x:v>31</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E12" t="s">
-        <x:v>118</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F12">
         <x:v>1</x:v>
@@ -1700,19 +1704,19 @@
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B13" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C13" t="s">
-        <x:v>115</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D13" t="s">
-        <x:v>23</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E13" t="s">
-        <x:v>147</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F13">
         <x:v>1</x:v>
@@ -1720,19 +1724,19 @@
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B14" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C14" t="s">
-        <x:v>143</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D14" t="s">
-        <x:v>179</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E14" t="s">
-        <x:v>37</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F14">
         <x:v>1</x:v>
@@ -1740,19 +1744,19 @@
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B15" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C15" t="s">
-        <x:v>111</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D15" t="s">
-        <x:v>208</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E15" t="s">
-        <x:v>50</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F15">
         <x:v>60</x:v>
@@ -1760,19 +1764,19 @@
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B16" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C16" t="s">
-        <x:v>142</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D16" t="s">
-        <x:v>3</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E16" t="s">
-        <x:v>181</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F16">
         <x:v>1</x:v>
@@ -1780,19 +1784,19 @@
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B17" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C17" t="s">
-        <x:v>148</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D17" t="s">
-        <x:v>197</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E17" t="s">
-        <x:v>171</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="F17">
         <x:v>1</x:v>
@@ -1800,19 +1804,19 @@
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B18" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C18" t="s">
-        <x:v>146</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D18" t="s">
-        <x:v>14</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E18" t="s">
-        <x:v>159</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="F18">
         <x:v>1</x:v>
@@ -1820,19 +1824,19 @@
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B19" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C19" t="s">
-        <x:v>145</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D19" t="s">
-        <x:v>13</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E19" t="s">
-        <x:v>166</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F19">
         <x:v>1</x:v>
@@ -1840,19 +1844,19 @@
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B20" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C20" t="s">
-        <x:v>144</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D20" t="s">
-        <x:v>164</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E20" t="s">
-        <x:v>43</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="F20">
         <x:v>1</x:v>
@@ -1860,19 +1864,19 @@
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B21" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C21" t="s">
-        <x:v>78</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D21" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E21" t="s">
-        <x:v>158</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F21">
         <x:v>1</x:v>
@@ -1880,19 +1884,19 @@
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B22" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C22" t="s">
-        <x:v>85</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D22" t="s">
-        <x:v>20</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E22" t="s">
-        <x:v>38</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F22">
         <x:v>1</x:v>
@@ -1900,19 +1904,19 @@
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B23" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C23" t="s">
-        <x:v>79</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D23" t="s">
-        <x:v>184</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E23" t="s">
-        <x:v>157</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F23">
         <x:v>1</x:v>
@@ -1920,19 +1924,19 @@
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B24" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C24" t="s">
-        <x:v>72</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D24" t="s">
-        <x:v>32</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E24" t="s">
-        <x:v>49</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F24">
         <x:v>1</x:v>
@@ -1940,19 +1944,19 @@
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B25" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C25" t="s">
-        <x:v>75</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D25" t="s">
-        <x:v>151</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E25" t="s">
-        <x:v>52</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F25">
         <x:v>2</x:v>
@@ -1960,19 +1964,19 @@
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B26" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C26" t="s">
-        <x:v>74</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D26" t="s">
-        <x:v>26</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E26" t="s">
-        <x:v>40</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F26">
         <x:v>2</x:v>
@@ -1980,19 +1984,19 @@
     </x:row>
     <x:row r="27" spans="1:6">
       <x:c r="A27" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B27" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C27" t="s">
-        <x:v>68</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D27" t="s">
-        <x:v>17</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E27" t="s">
-        <x:v>46</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F27">
         <x:v>2</x:v>
@@ -2000,19 +2004,19 @@
     </x:row>
     <x:row r="28" spans="1:6">
       <x:c r="A28" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B28" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C28" t="s">
-        <x:v>56</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D28" t="s">
-        <x:v>16</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E28" t="s">
-        <x:v>73</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F28">
         <x:v>2</x:v>
@@ -2020,19 +2024,19 @@
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B29" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C29" t="s">
-        <x:v>90</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D29" t="s">
-        <x:v>186</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E29" t="s">
-        <x:v>47</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F29">
         <x:v>1</x:v>
@@ -2040,19 +2044,19 @@
     </x:row>
     <x:row r="30" spans="1:6">
       <x:c r="A30" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B30" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C30" t="s">
-        <x:v>126</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D30" t="s">
-        <x:v>18</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E30" t="s">
-        <x:v>48</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F30">
         <x:v>1</x:v>
@@ -2060,19 +2064,19 @@
     </x:row>
     <x:row r="31" spans="1:6">
       <x:c r="A31" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B31" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C31" t="s">
-        <x:v>131</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D31" t="s">
-        <x:v>140</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E31" t="s">
-        <x:v>161</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F31">
         <x:v>1</x:v>
@@ -2080,19 +2084,19 @@
     </x:row>
     <x:row r="32" spans="1:6">
       <x:c r="A32" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B32" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C32" t="s">
-        <x:v>139</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D32" t="s">
-        <x:v>192</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E32" t="s">
-        <x:v>51</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F32">
         <x:v>1</x:v>
@@ -2100,19 +2104,19 @@
     </x:row>
     <x:row r="33" spans="1:6">
       <x:c r="A33" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B33" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C33" t="s">
-        <x:v>104</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D33" t="s">
-        <x:v>201</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E33" t="s">
-        <x:v>45</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F33">
         <x:v>2</x:v>
@@ -2120,19 +2124,19 @@
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B34" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C34" t="s">
-        <x:v>94</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D34" t="s">
-        <x:v>27</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E34" t="s">
-        <x:v>155</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F34">
         <x:v>1</x:v>
@@ -2140,19 +2144,19 @@
     </x:row>
     <x:row r="35" spans="1:6">
       <x:c r="A35" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B35" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C35" t="s">
-        <x:v>88</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D35" t="s">
-        <x:v>29</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E35" t="s">
-        <x:v>0</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F35">
         <x:v>1</x:v>
@@ -2160,19 +2164,19 @@
     </x:row>
     <x:row r="36" spans="1:6">
       <x:c r="A36" t="s">
-        <x:v>141</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B36" t="s">
-        <x:v>163</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C36" t="s">
-        <x:v>102</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D36" t="s">
-        <x:v>195</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E36" t="s">
-        <x:v>165</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="F36">
         <x:v>1</x:v>
@@ -2180,19 +2184,19 @@
     </x:row>
     <x:row r="37" spans="1:6">
       <x:c r="A37" t="s">
-        <x:v>141</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B37" t="s">
-        <x:v>163</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C37" t="s">
-        <x:v>86</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D37" t="s">
-        <x:v>153</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E37" t="s">
-        <x:v>77</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F37">
         <x:v>1</x:v>
@@ -2200,19 +2204,19 @@
     </x:row>
     <x:row r="38" spans="1:6">
       <x:c r="A38" t="s">
-        <x:v>141</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B38" t="s">
-        <x:v>163</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C38" t="s">
-        <x:v>96</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D38" t="s">
-        <x:v>190</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E38" t="s">
-        <x:v>175</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="F38">
         <x:v>1</x:v>
@@ -2220,19 +2224,19 @@
     </x:row>
     <x:row r="39" spans="1:6">
       <x:c r="A39" t="s">
-        <x:v>141</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B39" t="s">
-        <x:v>163</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C39" t="s">
-        <x:v>89</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D39" t="s">
-        <x:v>87</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E39" t="s">
-        <x:v>44</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F39">
         <x:v>1</x:v>
@@ -2240,19 +2244,19 @@
     </x:row>
     <x:row r="40" spans="1:6">
       <x:c r="A40" t="s">
-        <x:v>141</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B40" t="s">
-        <x:v>163</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C40" t="s">
-        <x:v>91</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D40" t="s">
-        <x:v>101</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E40" t="s">
-        <x:v>154</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F40">
         <x:v>1</x:v>
@@ -2260,19 +2264,19 @@
     </x:row>
     <x:row r="41" spans="1:6">
       <x:c r="A41" t="s">
-        <x:v>141</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B41" t="s">
-        <x:v>163</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C41" t="s">
-        <x:v>92</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D41" t="s">
-        <x:v>12</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E41" t="s">
-        <x:v>53</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F41">
         <x:v>1</x:v>
@@ -2280,19 +2284,19 @@
     </x:row>
     <x:row r="42" spans="1:6">
       <x:c r="A42" t="s">
-        <x:v>141</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B42" t="s">
-        <x:v>163</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C42" t="s">
-        <x:v>109</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D42" t="s">
-        <x:v>1</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E42" t="s">
-        <x:v>41</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F42">
         <x:v>1</x:v>
@@ -2300,19 +2304,19 @@
     </x:row>
     <x:row r="43" spans="1:6">
       <x:c r="A43" t="s">
-        <x:v>141</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B43" t="s">
-        <x:v>163</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C43" t="s">
-        <x:v>93</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D43" t="s">
-        <x:v>180</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="E43" t="s">
-        <x:v>37</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F43">
         <x:v>1</x:v>
@@ -2320,19 +2324,19 @@
     </x:row>
     <x:row r="44" spans="1:6">
       <x:c r="A44" t="s">
-        <x:v>141</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B44" t="s">
-        <x:v>163</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C44" t="s">
-        <x:v>103</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D44" t="s">
-        <x:v>207</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E44" t="s">
-        <x:v>38</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F44">
         <x:v>1</x:v>
@@ -2340,19 +2344,19 @@
     </x:row>
     <x:row r="45" spans="1:6">
       <x:c r="A45" t="s">
-        <x:v>141</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B45" t="s">
-        <x:v>163</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C45" t="s">
-        <x:v>95</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D45" t="s">
-        <x:v>30</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E45" t="s">
-        <x:v>157</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F45">
         <x:v>1</x:v>
@@ -2360,19 +2364,19 @@
     </x:row>
     <x:row r="46" spans="1:6">
       <x:c r="A46" t="s">
-        <x:v>141</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B46" t="s">
-        <x:v>163</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C46" t="s">
-        <x:v>130</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D46" t="s">
-        <x:v>2</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E46" t="s">
-        <x:v>52</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F46">
         <x:v>1</x:v>
@@ -2380,19 +2384,19 @@
     </x:row>
     <x:row r="47" spans="1:6">
       <x:c r="A47" t="s">
-        <x:v>141</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B47" t="s">
-        <x:v>163</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C47" t="s">
-        <x:v>133</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D47" t="s">
-        <x:v>193</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E47" t="s">
-        <x:v>51</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F47">
         <x:v>1</x:v>
@@ -2400,19 +2404,19 @@
     </x:row>
     <x:row r="48" spans="1:6">
       <x:c r="A48" t="s">
-        <x:v>141</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B48" t="s">
-        <x:v>163</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C48" t="s">
-        <x:v>121</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D48" t="s">
-        <x:v>25</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E48" t="s">
-        <x:v>155</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F48">
         <x:v>1</x:v>
@@ -2420,19 +2424,19 @@
     </x:row>
     <x:row r="49" spans="1:6">
       <x:c r="A49" t="s">
-        <x:v>141</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B49" t="s">
-        <x:v>163</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C49" t="s">
-        <x:v>127</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D49" t="s">
-        <x:v>129</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E49" t="s">
-        <x:v>54</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F49">
         <x:v>1</x:v>
@@ -2440,19 +2444,19 @@
     </x:row>
     <x:row r="50" spans="1:6">
       <x:c r="A50" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B50" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C50" t="s">
-        <x:v>119</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D50" t="s">
-        <x:v>168</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E50" t="s">
-        <x:v>39</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F50">
         <x:v>1</x:v>
@@ -2460,19 +2464,19 @@
     </x:row>
     <x:row r="51" spans="1:6">
       <x:c r="A51" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B51" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C51" t="s">
-        <x:v>128</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D51" t="s">
-        <x:v>4</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E51" t="s">
-        <x:v>77</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F51">
         <x:v>1</x:v>
@@ -2480,19 +2484,19 @@
     </x:row>
     <x:row r="52" spans="1:6">
       <x:c r="A52" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B52" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C52" t="s">
-        <x:v>136</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D52" t="s">
-        <x:v>191</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="E52" t="s">
-        <x:v>44</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F52">
         <x:v>2</x:v>
@@ -2500,19 +2504,19 @@
     </x:row>
     <x:row r="53" spans="1:6">
       <x:c r="A53" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B53" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C53" t="s">
-        <x:v>124</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D53" t="s">
         <x:v>187</x:v>
       </x:c>
       <x:c r="E53" t="s">
-        <x:v>55</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F53">
         <x:v>2</x:v>
@@ -2520,19 +2524,19 @@
     </x:row>
     <x:row r="54" spans="1:6">
       <x:c r="A54" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B54" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C54" t="s">
-        <x:v>113</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D54" t="s">
-        <x:v>5</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E54" t="s">
-        <x:v>172</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F54">
         <x:v>1</x:v>
@@ -2540,19 +2544,19 @@
     </x:row>
     <x:row r="55" spans="1:6">
       <x:c r="A55" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B55" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C55" t="s">
-        <x:v>123</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D55" t="s">
-        <x:v>10</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E55" t="s">
-        <x:v>41</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F55">
         <x:v>1</x:v>
@@ -2560,19 +2564,19 @@
     </x:row>
     <x:row r="56" spans="1:6">
       <x:c r="A56" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B56" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C56" t="s">
-        <x:v>67</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D56" t="s">
-        <x:v>210</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E56" t="s">
-        <x:v>42</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F56">
         <x:v>2</x:v>
@@ -2580,19 +2584,19 @@
     </x:row>
     <x:row r="57" spans="1:6">
       <x:c r="A57" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B57" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C57" t="s">
-        <x:v>110</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D57" t="s">
-        <x:v>200</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E57" t="s">
-        <x:v>156</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F57">
         <x:v>1</x:v>
@@ -2600,19 +2604,19 @@
     </x:row>
     <x:row r="58" spans="1:6">
       <x:c r="A58" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B58" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C58" t="s">
-        <x:v>112</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D58" t="s">
-        <x:v>206</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E58" t="s">
-        <x:v>160</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F58">
         <x:v>1</x:v>
@@ -2620,19 +2624,19 @@
     </x:row>
     <x:row r="59" spans="1:6">
       <x:c r="A59" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B59" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C59" t="s">
-        <x:v>66</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D59" t="s">
-        <x:v>35</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E59" t="s">
-        <x:v>84</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F59">
         <x:v>1</x:v>
@@ -2640,19 +2644,19 @@
     </x:row>
     <x:row r="60" spans="1:6">
       <x:c r="A60" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B60" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C60" t="s">
-        <x:v>61</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D60" t="s">
-        <x:v>33</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E60" t="s">
-        <x:v>118</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F60">
         <x:v>1</x:v>
@@ -2660,19 +2664,19 @@
     </x:row>
     <x:row r="61" spans="1:6">
       <x:c r="A61" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B61" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C61" t="s">
-        <x:v>120</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D61" t="s">
-        <x:v>7</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E61" t="s">
-        <x:v>147</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F61">
         <x:v>1</x:v>
@@ -2680,19 +2684,19 @@
     </x:row>
     <x:row r="62" spans="1:6">
       <x:c r="A62" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B62" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C62" t="s">
-        <x:v>65</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D62" t="s">
-        <x:v>182</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E62" t="s">
-        <x:v>37</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F62">
         <x:v>1</x:v>
@@ -2700,19 +2704,19 @@
     </x:row>
     <x:row r="63" spans="1:6">
       <x:c r="A63" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B63" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C63" t="s">
-        <x:v>138</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D63" t="s">
-        <x:v>204</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="E63" t="s">
-        <x:v>50</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F63">
         <x:v>60</x:v>
@@ -2720,19 +2724,19 @@
     </x:row>
     <x:row r="64" spans="1:6">
       <x:c r="A64" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B64" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C64" t="s">
-        <x:v>58</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D64" t="s">
-        <x:v>209</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E64" t="s">
-        <x:v>181</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F64">
         <x:v>1</x:v>
@@ -2740,19 +2744,19 @@
     </x:row>
     <x:row r="65" spans="1:6">
       <x:c r="A65" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B65" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C65" t="s">
-        <x:v>107</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D65" t="s">
-        <x:v>202</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E65" t="s">
-        <x:v>171</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="F65">
         <x:v>1</x:v>
@@ -2760,19 +2764,19 @@
     </x:row>
     <x:row r="66" spans="1:6">
       <x:c r="A66" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B66" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C66" t="s">
-        <x:v>69</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D66" t="s">
-        <x:v>8</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E66" t="s">
-        <x:v>159</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="F66">
         <x:v>1</x:v>
@@ -2780,19 +2784,19 @@
     </x:row>
     <x:row r="67" spans="1:6">
       <x:c r="A67" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B67" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C67" t="s">
-        <x:v>98</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D67" t="s">
-        <x:v>15</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E67" t="s">
-        <x:v>166</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F67">
         <x:v>1</x:v>
@@ -2800,19 +2804,19 @@
     </x:row>
     <x:row r="68" spans="1:6">
       <x:c r="A68" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B68" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C68" t="s">
-        <x:v>64</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D68" t="s">
-        <x:v>174</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E68" t="s">
-        <x:v>43</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="F68">
         <x:v>1</x:v>
@@ -2820,19 +2824,19 @@
     </x:row>
     <x:row r="69" spans="1:6">
       <x:c r="A69" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B69" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C69" t="s">
-        <x:v>63</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D69" t="s">
-        <x:v>9</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E69" t="s">
-        <x:v>158</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F69">
         <x:v>1</x:v>
@@ -2840,19 +2844,19 @@
     </x:row>
     <x:row r="70" spans="1:6">
       <x:c r="A70" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B70" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C70" t="s">
-        <x:v>62</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D70" t="s">
-        <x:v>24</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E70" t="s">
-        <x:v>38</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F70">
         <x:v>1</x:v>
@@ -2860,19 +2864,19 @@
     </x:row>
     <x:row r="71" spans="1:6">
       <x:c r="A71" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B71" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C71" t="s">
-        <x:v>99</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D71" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E71" t="s">
-        <x:v>157</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F71">
         <x:v>1</x:v>
@@ -2880,19 +2884,19 @@
     </x:row>
     <x:row r="72" spans="1:6">
       <x:c r="A72" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B72" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="C72" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D72" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="B72" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="C72" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D72" t="s">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="E72" t="s">
-        <x:v>49</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F72">
         <x:v>1</x:v>
@@ -2900,19 +2904,19 @@
     </x:row>
     <x:row r="73" spans="1:6">
       <x:c r="A73" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B73" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C73" t="s">
-        <x:v>108</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D73" t="s">
-        <x:v>28</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E73" t="s">
-        <x:v>52</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F73">
         <x:v>2</x:v>
@@ -2920,19 +2924,19 @@
     </x:row>
     <x:row r="74" spans="1:6">
       <x:c r="A74" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B74" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C74" t="s">
-        <x:v>106</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D74" t="s">
-        <x:v>149</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E74" t="s">
-        <x:v>40</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F74">
         <x:v>2</x:v>
@@ -2940,19 +2944,19 @@
     </x:row>
     <x:row r="75" spans="1:6">
       <x:c r="A75" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B75" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C75" t="s">
-        <x:v>132</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D75" t="s">
-        <x:v>188</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E75" t="s">
-        <x:v>46</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F75">
         <x:v>2</x:v>
@@ -2960,19 +2964,19 @@
     </x:row>
     <x:row r="76" spans="1:6">
       <x:c r="A76" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B76" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C76" t="s">
-        <x:v>56</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D76" t="s">
-        <x:v>16</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E76" t="s">
-        <x:v>73</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F76">
         <x:v>2</x:v>
@@ -2980,19 +2984,19 @@
     </x:row>
     <x:row r="77" spans="1:6">
       <x:c r="A77" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B77" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C77" t="s">
-        <x:v>105</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D77" t="s">
-        <x:v>152</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E77" t="s">
-        <x:v>47</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F77">
         <x:v>1</x:v>
@@ -3000,19 +3004,19 @@
     </x:row>
     <x:row r="78" spans="1:6">
       <x:c r="A78" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B78" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C78" t="s">
-        <x:v>126</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D78" t="s">
-        <x:v>18</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E78" t="s">
-        <x:v>48</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F78">
         <x:v>1</x:v>
@@ -3020,19 +3024,19 @@
     </x:row>
     <x:row r="79" spans="1:6">
       <x:c r="A79" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B79" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C79" t="s">
-        <x:v>57</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D79" t="s">
-        <x:v>97</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E79" t="s">
-        <x:v>161</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F79">
         <x:v>1</x:v>
@@ -3040,19 +3044,19 @@
     </x:row>
     <x:row r="80" spans="1:6">
       <x:c r="A80" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B80" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C80" t="s">
-        <x:v>137</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D80" t="s">
-        <x:v>185</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E80" t="s">
-        <x:v>51</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F80">
         <x:v>1</x:v>
@@ -3060,19 +3064,19 @@
     </x:row>
     <x:row r="81" spans="1:6">
       <x:c r="A81" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B81" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C81" t="s">
-        <x:v>59</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D81" t="s">
-        <x:v>205</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E81" t="s">
-        <x:v>45</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F81">
         <x:v>2</x:v>
@@ -3080,19 +3084,19 @@
     </x:row>
     <x:row r="82" spans="1:6">
       <x:c r="A82" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B82" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C82" t="s">
-        <x:v>135</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D82" t="s">
-        <x:v>150</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="E82" t="s">
-        <x:v>155</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F82">
         <x:v>1</x:v>
@@ -3100,22 +3104,42 @@
     </x:row>
     <x:row r="83" spans="1:6">
       <x:c r="A83" t="s">
-        <x:v>134</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B83" t="s">
-        <x:v>167</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C83" t="s">
-        <x:v>100</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D83" t="s">
-        <x:v>21</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E83" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="F83">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:6">
+      <x:c r="A84" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B84" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F83">
-        <x:v>1</x:v>
+      <x:c r="C84" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D84" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E84" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="F84">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
